--- a/KEPENGURUSAN/History PPI Jensoed.xlsx
+++ b/KEPENGURUSAN/History PPI Jensoed.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Andi Sunardi</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Hisyam Robiansyah Roni</t>
   </si>
   <si>
-    <t>Daffa</t>
-  </si>
-  <si>
     <t>Anisa</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>Riski</t>
   </si>
   <si>
-    <t>Lusi</t>
-  </si>
-  <si>
-    <t>Della</t>
-  </si>
-  <si>
     <t>BINLAT</t>
   </si>
   <si>
@@ -94,6 +85,60 @@
   </si>
   <si>
     <t>Tia Siti Maduroh</t>
+  </si>
+  <si>
+    <t>Dela Imelda Kristia</t>
+  </si>
+  <si>
+    <t>Nafiatun Nisa</t>
+  </si>
+  <si>
+    <t>Lusi Apriliani</t>
+  </si>
+  <si>
+    <t>Intan Indriani</t>
+  </si>
+  <si>
+    <t>Anto Wiranto</t>
+  </si>
+  <si>
+    <t>Daffa Fauzul Hakim</t>
+  </si>
+  <si>
+    <t>Mirna</t>
+  </si>
+  <si>
+    <t>Sri Anggraeni</t>
+  </si>
+  <si>
+    <t>Mira Juliyanti</t>
+  </si>
+  <si>
+    <t>Jesica Sukarman</t>
+  </si>
+  <si>
+    <t>Tio Parhan</t>
+  </si>
+  <si>
+    <t>Rani Widyaningsih</t>
+  </si>
+  <si>
+    <t>Sani Aprilia</t>
+  </si>
+  <si>
+    <t>Risma Puspitasari</t>
+  </si>
+  <si>
+    <t>Asri Mulyanti</t>
+  </si>
+  <si>
+    <t>Dian Andriani</t>
+  </si>
+  <si>
+    <t>Tina Agustina</t>
+  </si>
+  <si>
+    <t>Yuli Rahmawati</t>
   </si>
 </sst>
 </file>
@@ -651,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,9 +708,11 @@
     <col min="4" max="4" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -719,7 +766,7 @@
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -799,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>1</v>
@@ -819,28 +866,28 @@
         <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="J12" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -848,34 +895,64 @@
         <v>2020</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>2021</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
